--- a/public/data/templates/ICGLR-packing-list.xlsx
+++ b/public/data/templates/ICGLR-packing-list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20406"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WebStormProjects\mining-company-management-system-backend\public\data\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WebStormProjects\rani-mining-company\public\data\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5868D2DC-5365-4DB1-AC0E-4BF365F7C5D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DF1700-C4A1-4C80-B7E8-76AB056A0D3E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -112,9 +112,6 @@
     <t>Coltan</t>
   </si>
   <si>
-    <t>EXPORTER NAME: KANZAMIN LIMITED</t>
-  </si>
-  <si>
     <t xml:space="preserve">TYPE OF MINERAL TO BE EXPORTED:                         </t>
   </si>
   <si>
@@ -128,6 +125,9 @@
   </si>
   <si>
     <t xml:space="preserve">ANTICIPATED SHIPMENT DATE: </t>
+  </si>
+  <si>
+    <t>EXPORTER NAME: RANI MINING COMPANY LIMITED</t>
   </si>
 </sst>
 </file>
@@ -534,6 +534,36 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -564,36 +594,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -609,55 +609,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>951058</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="4781550" cy="951058"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -983,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z526"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -999,15 +950,15 @@
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
-        <v>30</v>
+      <c r="A2" s="60" t="s">
+        <v>35</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="72"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="62"/>
       <c r="H2" s="2"/>
       <c r="I2" s="3"/>
       <c r="J2" s="5"/>
@@ -1029,15 +980,15 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="70" t="s">
-        <v>31</v>
+      <c r="A3" s="60" t="s">
+        <v>30</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="72"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="62"/>
       <c r="H3" s="5"/>
       <c r="I3" s="6"/>
       <c r="J3" s="5"/>
@@ -1059,15 +1010,15 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
-        <v>32</v>
+      <c r="A4" s="60" t="s">
+        <v>31</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="72"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="62"/>
       <c r="H4" s="5"/>
       <c r="I4" s="6"/>
       <c r="J4" s="5"/>
@@ -1089,15 +1040,15 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="70" t="s">
-        <v>33</v>
+      <c r="A5" s="60" t="s">
+        <v>32</v>
       </c>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="72"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="62"/>
       <c r="H5" s="5"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
@@ -1119,15 +1070,15 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="70" t="s">
-        <v>34</v>
+      <c r="A6" s="60" t="s">
+        <v>33</v>
       </c>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="72"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="62"/>
       <c r="H6" s="5"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
@@ -1149,15 +1100,15 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="70" t="s">
-        <v>35</v>
+      <c r="A7" s="60" t="s">
+        <v>34</v>
       </c>
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="72"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="62"/>
       <c r="H7" s="2"/>
       <c r="I7" s="3"/>
       <c r="J7" s="5"/>
@@ -1207,42 +1158,42 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="74"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="76"/>
-      <c r="M9" s="77" t="s">
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="N9" s="78"/>
-      <c r="O9" s="78"/>
-      <c r="P9" s="78"/>
-      <c r="Q9" s="78"/>
-      <c r="R9" s="79"/>
-      <c r="S9" s="60" t="s">
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="68"/>
+      <c r="R9" s="69"/>
+      <c r="S9" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="T9" s="61"/>
-      <c r="U9" s="62"/>
-      <c r="V9" s="63" t="s">
+      <c r="T9" s="71"/>
+      <c r="U9" s="72"/>
+      <c r="V9" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="W9" s="64"/>
-      <c r="X9" s="65"/>
-      <c r="Y9" s="66" t="s">
+      <c r="W9" s="74"/>
+      <c r="X9" s="75"/>
+      <c r="Y9" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="Z9" s="67"/>
+      <c r="Z9" s="77"/>
     </row>
     <row r="10" spans="1:26" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
@@ -1281,18 +1232,18 @@
       <c r="L10" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="M10" s="68" t="s">
+      <c r="M10" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="69"/>
-      <c r="O10" s="68" t="s">
+      <c r="N10" s="79"/>
+      <c r="O10" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="P10" s="69"/>
-      <c r="Q10" s="68" t="s">
+      <c r="P10" s="79"/>
+      <c r="Q10" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="R10" s="69"/>
+      <c r="R10" s="79"/>
       <c r="S10" s="49" t="s">
         <v>20</v>
       </c>
@@ -15777,6 +15728,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
     <mergeCell ref="A7:G7"/>
     <mergeCell ref="A9:L9"/>
     <mergeCell ref="M9:R9"/>
@@ -15785,15 +15742,8 @@
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A6:G6"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>